--- a/数据整理/stocks/A股/深证主板/002714-牧原股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002714-牧原股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10560,7 +10561,6 @@
           <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
           <t>91.56</t>
@@ -10576,6 +10576,3708 @@
       </c>
       <c r="H157" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.2872</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6537</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2485</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8398</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6834</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7096</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6898</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3302</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2627</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2443</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0243</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0069</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8905</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8530</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6874</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6492</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6399</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6366</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6122</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5756</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5626</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4908</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4859</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4838</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4738</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4726</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4632</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4498</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4454</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3606</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009194</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001789</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰量化收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001059</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中金绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009195</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002714-牧原股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002714-牧原股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14283,4 +14284,4350 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19.8815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3812</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>153.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1760</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0558</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5974</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5974</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3893</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3334</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1488</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6394</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4493</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1348</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0603</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0365</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0125</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8344</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8268</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8177</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7072</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7055</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6834</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001104</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6434</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6040</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5612</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5604</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5367</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4671</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4147</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3949</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3595</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3468</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009194</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009195</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华富中小板指数增强</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002714-牧原股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002714-牧原股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18630,4 +18631,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>113</v>
+      </c>
+      <c r="D2" t="n">
+        <v>76.76000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>156</v>
+      </c>
+      <c r="D4" t="n">
+        <v>83.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>108</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002714-牧原股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002714-牧原股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18639,7 +18640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18650,17 +18651,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18670,14 +18691,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>113</v>
-      </c>
-      <c r="D2" t="n">
-        <v>76.76000000000001</v>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>310.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.3528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -18686,14 +18729,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>96</v>
-      </c>
-      <c r="D3" t="n">
-        <v>66</v>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.0684</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -18702,14 +18767,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>156</v>
-      </c>
-      <c r="D4" t="n">
-        <v>83.36</v>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -18718,13 +18805,5726 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6216</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6741</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5996</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4668</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>70.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4541</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3586</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8708</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6323</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163411</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5536</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4697</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4605</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3684</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3610</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1760</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1727</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1658</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1487</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1273</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0088</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8644</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8532</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7938</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7767</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7632</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7419</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7259</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6647</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6205</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6102</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5391</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5355</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4923</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4426</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3943</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3912</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3710</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3543</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3290</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010879</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方宝升混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2185</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>南方平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010880</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>南方宝升混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005397</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>南方安养混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>24.03</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>31.21</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>65.98</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>151</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>113</v>
+      </c>
+      <c r="D3" t="n">
+        <v>76.76000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>156</v>
+      </c>
+      <c r="D5" t="n">
+        <v>83.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>108</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>54.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002714-牧原股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002714-牧原股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41299,7 +41300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41310,17 +41311,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -41330,14 +41351,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>443</v>
-      </c>
-      <c r="D2" t="n">
-        <v>179.57</v>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0960</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -41346,14 +41389,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>151</v>
-      </c>
-      <c r="D3" t="n">
-        <v>82.92</v>
+          <t>159928</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>114.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3846</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -41362,14 +41427,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>113</v>
-      </c>
-      <c r="D4" t="n">
-        <v>76.76000000000001</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>135.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -41378,14 +41465,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>96</v>
-      </c>
-      <c r="D5" t="n">
-        <v>66</v>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7793</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -41394,14 +41503,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>156</v>
-      </c>
-      <c r="D6" t="n">
-        <v>83.36</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8948</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -41410,13 +41541,9554 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0199</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7514</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5696</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.5407</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2755</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159825</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1893</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>71.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1821</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1528</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.1200</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>48.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9850</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>45.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8730</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8107</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>43.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.6752</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5246</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5113</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4871</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>52.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3805</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1815</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1674</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1502</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001705</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德战略转型股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1235</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1050</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0577</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515650</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证消费50ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9671</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161604</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通深证100指数A\B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>54.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9386</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8978</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8750</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8459</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8136</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7873</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010769</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7420</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001579</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰大农业股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6988</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6876</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6721</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013414</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>太平智远三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6712</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6503</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5518</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010770</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证农业主题指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5180</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5156</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5087</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5073</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4762</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4690</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4519</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>512600</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实中证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4518</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4399</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4388</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4118</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4005</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3991</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3961</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3939</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>68.95</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3649</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001104</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002846</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泓德泓华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3477</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2967</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159902</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏中小企业板ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2770</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015468</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2113</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005787</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>61.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013956</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华商医药消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159827</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银华中证农业主题ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014210</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159973</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>弘毅远方国证民企领先100ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>180018</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银华和谐主题混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003884</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇安沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>516550</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>嘉实中证大农业ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>161118</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>易方达中小板指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012872</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>易方达中小企业100指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003885</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>汇安沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005317</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>163111</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>009116</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>002728</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>华富益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>159907</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>广发中小板300ETF</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>012021</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>002729</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>华富益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>011534</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>012022</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>009117</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>东兴中证消费50指数C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>51.16</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>013957</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>华商医药消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>010543</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>51.16</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>72.60</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>47.30</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>014211</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>国投瑞银竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>004876</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>融通深证100指数C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>68.91</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>011535</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>万家民瑞祥明6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>007799</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>申万菱信中小板指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>162510</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>国联安双力中小板综指 (LOF)</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>015588</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>国泰大农业股票C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>005318</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>万家瑞舜灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>013505</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>华安新丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>010544</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>中加科鑫混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>兴全合兴两年封闭运作混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>47.30</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>011879</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>013515</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合C</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>253</v>
+      </c>
+      <c r="D2" t="n">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>443</v>
+      </c>
+      <c r="D3" t="n">
+        <v>179.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>151</v>
+      </c>
+      <c r="D4" t="n">
+        <v>82.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>113</v>
+      </c>
+      <c r="D5" t="n">
+        <v>76.76000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>96</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>156</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>108</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>54.88</v>
       </c>
     </row>
